--- a/Team-Data/2012-13/2-20-2012-13.xlsx
+++ b/Team-Data/2012-13/2-20-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,10 +751,10 @@
         <v>37.2</v>
       </c>
       <c r="J2" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
@@ -696,73 +763,73 @@
         <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="P2" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0.701</v>
       </c>
       <c r="R2" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
         <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -780,16 +847,16 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,16 +865,16 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -816,10 +883,10 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.519</v>
+        <v>0.528</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
@@ -872,31 +939,31 @@
         <v>0.457</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.782</v>
+        <v>0.785</v>
       </c>
       <c r="R3" t="n">
         <v>8.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U3" t="n">
         <v>23.3</v>
@@ -905,7 +972,7 @@
         <v>14.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>4.2</v>
@@ -920,13 +987,13 @@
         <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -947,22 +1014,22 @@
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN3" t="n">
         <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -971,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,16 +1115,16 @@
         <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L4" t="n">
         <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
         <v>0.355</v>
@@ -1069,37 +1136,37 @@
         <v>24.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T4" t="n">
         <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
         <v>18.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
         <v>95.5</v>
@@ -1108,7 +1175,7 @@
         <v>0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>7</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1141,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1153,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>15</v>
@@ -1162,13 +1229,13 @@
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>7</v>
@@ -1177,13 +1244,13 @@
         <v>3</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB4" t="n">
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.241</v>
+        <v>0.245</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,19 +1297,19 @@
         <v>34.4</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
@@ -1254,22 +1321,22 @@
         <v>0.751</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
         <v>29.7</v>
       </c>
       <c r="T5" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>6.3</v>
@@ -1281,16 +1348,16 @@
         <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,10 +1384,10 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1338,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1484,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1505,13 +1572,13 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1523,28 +1590,28 @@
         <v>5</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA6" t="n">
         <v>12</v>
       </c>
-      <c r="BA6" t="n">
-        <v>13</v>
-      </c>
       <c r="BB6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>0.315</v>
+        <v>0.302</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N7" t="n">
         <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T7" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U7" t="n">
         <v>20.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
         <v>8.199999999999999</v>
@@ -1642,25 +1709,25 @@
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,13 +1736,13 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
@@ -1690,25 +1757,25 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>12</v>
@@ -1723,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1825,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.453</v>
+        <v>0.442</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
         <v>38.3</v>
@@ -1785,58 +1852,58 @@
         <v>7.3</v>
       </c>
       <c r="M8" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O8" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P8" t="n">
         <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
         <v>4.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1860,13 +1927,13 @@
         <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1878,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1887,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>6</v>
@@ -1896,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -2030,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.393</v>
+        <v>0.382</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J10" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O10" t="n">
         <v>16.2</v>
@@ -2161,25 +2228,25 @@
         <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T10" t="n">
         <v>43.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.6</v>
@@ -2188,22 +2255,22 @@
         <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>18</v>
@@ -2230,10 +2297,10 @@
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2242,31 +2309,31 @@
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.574</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2328,19 +2395,19 @@
         <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
         <v>19.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0.797</v>
@@ -2355,46 +2422,46 @@
         <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA11" t="n">
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2409,16 +2476,16 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2436,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2448,16 +2515,16 @@
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.536</v>
+        <v>0.527</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.462</v>
       </c>
       <c r="L12" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M12" t="n">
         <v>28.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
@@ -2537,43 +2604,43 @@
         <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA12" t="n">
         <v>19.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>106.1</v>
       </c>
       <c r="AC12" t="n">
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2582,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J13" t="n">
         <v>81.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R13" t="n">
         <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T13" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
@@ -2734,19 +2801,19 @@
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2767,28 +2834,28 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO13" t="n">
         <v>19</v>
       </c>
-      <c r="AO13" t="n">
-        <v>16</v>
-      </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2800,25 +2867,25 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
         <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -2946,13 +3013,13 @@
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>10</v>
@@ -2961,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.473</v>
+        <v>0.463</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
         <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
         <v>8.5</v>
@@ -3068,10 +3135,10 @@
         <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.694</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>11.7</v>
@@ -3080,7 +3147,7 @@
         <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U15" t="n">
         <v>22.2</v>
@@ -3092,28 +3159,28 @@
         <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA15" t="n">
         <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -3125,13 +3192,13 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3161,16 +3228,16 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.66</v>
+        <v>0.654</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="R16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="S16" t="n">
         <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3307,13 +3374,13 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO16" t="n">
         <v>22</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3355,13 +3422,13 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,7 +3481,7 @@
         <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.493</v>
@@ -3423,13 +3490,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
         <v>22.9</v>
@@ -3438,13 +3505,13 @@
         <v>0.761</v>
       </c>
       <c r="R17" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S17" t="n">
         <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U17" t="n">
         <v>22.3</v>
@@ -3453,16 +3520,16 @@
         <v>13.4</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
@@ -3471,7 +3538,7 @@
         <v>103.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD17" t="n">
         <v>28</v>
@@ -3483,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
@@ -3501,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>3</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="n">
         <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>0.491</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,34 +3663,34 @@
         <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>86.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O18" t="n">
         <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.731</v>
+        <v>0.735</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T18" t="n">
         <v>43.5</v>
@@ -3635,7 +3702,7 @@
         <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>7.6</v>
@@ -3644,25 +3711,25 @@
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3683,7 +3750,7 @@
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
@@ -3692,40 +3759,40 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
         <v>17</v>
       </c>
       <c r="AT18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW18" t="n">
         <v>6</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ18" t="n">
         <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.392</v>
+        <v>0.38</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R19" t="n">
         <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
         <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3826,16 +3893,16 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
         <v>28</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3892,10 +3959,10 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3963,7 +4030,7 @@
         <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
@@ -3972,16 +4039,16 @@
         <v>18.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
@@ -3990,40 +4057,40 @@
         <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
         <v>14.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
         <v>5.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC20" t="n">
         <v>-3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4053,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4062,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
@@ -4086,7 +4153,7 @@
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4095,7 +4162,7 @@
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -4124,91 +4191,91 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>0.627</v>
+        <v>0.64</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J21" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
         <v>29</v>
       </c>
       <c r="N21" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P21" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V21" t="n">
         <v>11.6</v>
       </c>
       <c r="W21" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>3.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD21" t="n">
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
         <v>6</v>
@@ -4220,10 +4287,10 @@
         <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4238,16 +4305,16 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>23</v>
@@ -4271,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
         <v>39</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.722</v>
+        <v>0.736</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,7 +4391,7 @@
         <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.482</v>
@@ -4333,19 +4400,19 @@
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
         <v>0.389</v>
       </c>
       <c r="O22" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="P22" t="n">
         <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.83</v>
+        <v>0.828</v>
       </c>
       <c r="R22" t="n">
         <v>10.2</v>
@@ -4354,46 +4421,46 @@
         <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U22" t="n">
         <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.3</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="n">
-        <v>0.278</v>
+        <v>0.283</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
         <v>6.5</v>
@@ -4518,25 +4585,25 @@
         <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O23" t="n">
         <v>12.2</v>
       </c>
       <c r="P23" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.769</v>
+        <v>0.774</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S23" t="n">
         <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
         <v>23.3</v>
@@ -4551,22 +4618,22 @@
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AB23" t="n">
         <v>94</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4590,13 +4657,13 @@
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4620,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4632,7 +4699,7 @@
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>0.423</v>
+        <v>0.431</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J24" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L24" t="n">
         <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N24" t="n">
         <v>0.35</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="P24" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.718</v>
+        <v>0.721</v>
       </c>
       <c r="R24" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T24" t="n">
         <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>7.2</v>
@@ -4733,28 +4800,28 @@
         <v>5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4763,10 +4830,10 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,22 +4866,22 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4823,7 +4890,7 @@
         <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
         <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
         <v>83.90000000000001</v>
@@ -4876,25 +4943,25 @@
         <v>0.444</v>
       </c>
       <c r="L25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M25" t="n">
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P25" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
         <v>29.8</v>
@@ -4903,7 +4970,7 @@
         <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V25" t="n">
         <v>14.7</v>
@@ -4921,22 +4988,22 @@
         <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.2</v>
+        <v>-5.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4948,10 +5015,10 @@
         <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4963,10 +5030,10 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP25" t="n">
         <v>26</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>17</v>
@@ -4975,13 +5042,13 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
         <v>15</v>
@@ -4990,7 +5057,7 @@
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
@@ -5133,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,16 +5209,16 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
@@ -5166,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5181,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -5294,37 +5361,37 @@
         <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
@@ -5339,7 +5406,7 @@
         <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT27" t="n">
         <v>27</v>
@@ -5351,7 +5418,7 @@
         <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5366,7 +5433,7 @@
         <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5509,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>3</v>
@@ -5539,7 +5606,7 @@
         <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>0.407</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O29" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P29" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
         <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T29" t="n">
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V29" t="n">
         <v>13.1</v>
@@ -5646,19 +5713,19 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,19 +5740,19 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
         <v>14</v>
@@ -5697,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>20</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5849,7 +5916,7 @@
         <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>13</v>
@@ -5858,10 +5925,10 @@
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5891,10 +5958,10 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5906,7 +5973,7 @@
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-4</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6049,10 +6116,10 @@
         <v>21</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6061,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-20-2012-13</t>
+          <t>2013-02-20</t>
         </is>
       </c>
     </row>
